--- a/issue.xlsx
+++ b/issue.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>issue</t>
   </si>
@@ -33,13 +33,28 @@
     <t>compliant</t>
   </si>
   <si>
+    <t>finish date</t>
+  </si>
+  <si>
     <t>issue_01</t>
   </si>
   <si>
-    <t>调整界面布局</t>
+    <t>添加issue.xlsx，记录每个分支任务</t>
   </si>
   <si>
     <t>iss01</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>issue_02</t>
+  </si>
+  <si>
+    <t>修改页面布局</t>
+  </si>
+  <si>
+    <t>iss02</t>
   </si>
   <si>
     <t>no</t>
@@ -55,14 +70,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,48 +528,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -571,103 +582,103 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1017,21 +1028,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="28.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" customWidth="1"/>
     <col min="3" max="4" width="22.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="27.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1047,19 +1059,39 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/issue.xlsx
+++ b/issue.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>issue</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>issue_03</t>
   </si>
 </sst>
 </file>
@@ -1028,13 +1031,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="34.5555555555556" customWidth="1"/>
@@ -1092,6 +1095,11 @@
       </c>
       <c r="D3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
